--- a/Total energy consumption_World.xlsx
+++ b/Total energy consumption_World.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrii/Desktop/PhD/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Никита\Desktop\Новая папка (2)\Vasenin_charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB9D9B-E0DD-8143-B1B9-2432D1139ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="17740" windowHeight="16040" xr2:uid="{316EA304-69C0-A94B-8327-AE6B2F884607}"/>
+    <workbookView xWindow="0" yWindow="803" windowWidth="17738" windowHeight="5783"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
     <sheet name="Europe" sheetId="3" r:id="rId2"/>
     <sheet name="Italy" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,12 +42,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>∆% TEC, G</t>
-  </si>
-  <si>
-    <t>∆% TEC, R</t>
-  </si>
-  <si>
     <t>4.85%</t>
   </si>
   <si>
@@ -160,16 +153,22 @@
     <t>39.67%</t>
   </si>
   <si>
-    <t>TEC, G, I, TJ</t>
-  </si>
-  <si>
-    <t>TEC, R, I, TJ</t>
+    <t>TEC,R,I,TJ</t>
+  </si>
+  <si>
+    <t>TEC,G,I,TJ</t>
+  </si>
+  <si>
+    <t>∆%TEC,G</t>
+  </si>
+  <si>
+    <t>∆%TEC,R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -275,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -289,13 +288,34 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -547,25 +567,6 @@
         <horizontal style="thin">
           <color auto="1"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -684,47 +685,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EE283F9-52C7-E942-8C6C-8968E9727071}" name="Table1" displayName="Table1" ref="A2:F9" totalsRowShown="0">
-  <autoFilter ref="A2:F9" xr:uid="{6EE283F9-52C7-E942-8C6C-8968E9727071}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F1FF766C-115B-A642-97CC-0C98BEA748EB}" name="Year" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E93409AF-AAA8-9C46-B792-AD652D89B855}" name="i" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2D77C428-F91B-7546-AC0E-C422CD284AE4}" name="TEC, G, I, TJ" dataDxfId="15">
-      <calculatedColumnFormula>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+A3</calculatedColumnFormula>
+    <tableColumn id="1" name="Year" dataDxfId="17"/>
+    <tableColumn id="2" name="i" dataDxfId="16"/>
+    <tableColumn id="3" name="TEC,G,I,TJ" dataDxfId="15">
+      <calculatedColumnFormula>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93E5AB55-CD09-AA43-8A65-33742D3E45FC}" name="TEC, R, I, TJ" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{93C020B7-103B-1A43-B1D6-C92A2DCE3001}" name="∆% TEC, G" dataDxfId="13" dataCellStyle="Per cent"/>
-    <tableColumn id="6" xr3:uid="{27B6FEF7-AC58-5446-B738-C993408F001E}" name="∆% TEC, R" dataDxfId="12" dataCellStyle="Per cent"/>
+    <tableColumn id="4" name="TEC,R,I,TJ" dataDxfId="14"/>
+    <tableColumn id="5" name="∆%TEC,G" dataDxfId="0"/>
+    <tableColumn id="6" name="∆%TEC,R" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7C179207-F339-CE44-815D-EB544F8D99E2}" name="Table14" displayName="Table14" ref="A2:F9" totalsRowShown="0">
-  <autoFilter ref="A2:F9" xr:uid="{7C179207-F339-CE44-815D-EB544F8D99E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BF91392C-2838-0B41-B98C-ED3B2313EE3A}" name="Year" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6C76A73E-376F-7145-8C1F-D093B5AF7A40}" name="i" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{5F1CE575-C64D-7344-810F-D5811B768EFE}" name="TEC, G, I, TJ" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{867C585C-8032-6D4E-9223-6BE8B6770E9A}" name="TEC, R, I, TJ" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D1AD5218-B1A4-5F4F-B99C-9949F96D5AAD}" name="∆% TEC, G" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{DB21946B-0DA3-DB4F-A337-01FCDC9F346C}" name="∆% TEC, R" dataDxfId="6"/>
+    <tableColumn id="1" name="Year" dataDxfId="12"/>
+    <tableColumn id="2" name="i" dataDxfId="11"/>
+    <tableColumn id="3" name="TEC,G,I,TJ" dataDxfId="10"/>
+    <tableColumn id="4" name="TEC,R,I,TJ" dataDxfId="9"/>
+    <tableColumn id="5" name="∆%TEC,G" dataDxfId="8"/>
+    <tableColumn id="6" name="∆%TEC,R" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B3438F9-5ED5-1047-B4F9-82D4D3298E5A}" name="Table13" displayName="Table13" ref="A2:F9" totalsRowShown="0">
-  <autoFilter ref="A2:F9" xr:uid="{2B3438F9-5ED5-1047-B4F9-82D4D3298E5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{210A5691-4F6D-F046-8658-2941083F0974}" name="Year" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{6E674F00-4471-EA4A-93FA-DDE1DEFE4499}" name="i" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9C9EC6C7-B77C-B647-B33E-67B4853FB59F}" name="TEC, G, I, TJ" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{73B56FF7-DFE3-7D4F-B060-5F65C0A530E8}" name="TEC, R, I, TJ" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B56B0583-080D-D541-B526-A55E776EDA9E}" name="∆% TEC, G" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F33EAE8C-E09D-3847-B08D-38F31E75D300}" name="∆% TEC, R" dataDxfId="0"/>
+    <tableColumn id="1" name="Year" dataDxfId="6"/>
+    <tableColumn id="2" name="i" dataDxfId="5"/>
+    <tableColumn id="3" name="TEC,G,I,TJ" dataDxfId="4"/>
+    <tableColumn id="4" name="TEC,R,I,TJ" dataDxfId="3"/>
+    <tableColumn id="5" name="∆%TEC,G" dataDxfId="2"/>
+    <tableColumn id="6" name="∆%TEC,R" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1026,361 +1027,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9606DA-642C-4A40-A024-8AD26EBD2934}">
-  <dimension ref="A2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13" style="13" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>261073951</v>
+      </c>
+      <c r="D2" s="1">
+        <v>63379057</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" s="1">
+        <v>272298299</v>
+      </c>
+      <c r="D3" s="1">
+        <v>71545400</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>261073951</v>
-      </c>
-      <c r="D3" s="1">
-        <v>63379057</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
       <c r="C4" s="1">
-        <v>272298299</v>
+        <v>293658764</v>
       </c>
       <c r="D4" s="1">
-        <v>71545400</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>74676144</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>333209279</v>
+      </c>
+      <c r="D5" s="1">
+        <v>78427861</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>293658764</v>
-      </c>
-      <c r="D5" s="1">
-        <v>74676144</v>
-      </c>
-      <c r="E5" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>369277405</v>
+      </c>
+      <c r="D6" s="1">
+        <v>81882328</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>333209279</v>
-      </c>
-      <c r="D6" s="1">
-        <v>78427861</v>
-      </c>
-      <c r="E6" s="12" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>393838938</v>
+      </c>
+      <c r="D7" s="1">
+        <v>82925009</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>369277405</v>
-      </c>
-      <c r="D7" s="1">
-        <v>81882328</v>
-      </c>
-      <c r="E7" s="12" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>400819444</v>
+      </c>
+      <c r="D8">
+        <v>88519915</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>393838938</v>
-      </c>
-      <c r="D8" s="1">
-        <v>82925009</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>400819444</v>
-      </c>
-      <c r="D9">
-        <v>88519915</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E707F7-EA38-A04D-B782-C3BFD4C14116}">
-  <dimension ref="A2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="13.3125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>59868355</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14416514</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" s="2">
+        <v>56610144</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14906440</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>59868355</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14416514</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
       <c r="C4" s="2">
-        <v>56610144</v>
+        <v>58353131</v>
       </c>
       <c r="D4" s="1">
-        <v>14906440</v>
+        <v>14865457</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>62072266</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15753694</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>58353131</v>
-      </c>
-      <c r="D5" s="1">
-        <v>14865457</v>
-      </c>
-      <c r="E5" s="11" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>61135891</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16372639</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>62072266</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15753694</v>
-      </c>
-      <c r="E6" s="9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>56900394</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14147977</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>61135891</v>
-      </c>
-      <c r="D7" s="1">
-        <v>16372639</v>
-      </c>
-      <c r="E7" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>55671116</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14239878</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>56900394</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14147977</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>55671116</v>
-      </c>
-      <c r="D9" s="1">
-        <v>14239878</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1392,180 +1395,180 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8A4824-9D82-9F42-90F7-0733FE3EEB6B}">
-  <dimension ref="A2:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.8125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.3125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4812577</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1091131</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5045792</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1102132</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5394250</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1155219</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4812577</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1091131</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5045792</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1102132</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5915407</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1420228</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5394250</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1155219</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5599645</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1481830</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5915407</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1420228</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4975796</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1360479</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5599645</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1481830</v>
-      </c>
-      <c r="E7" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4498108</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1279514</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4975796</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1360479</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4498108</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1279514</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
